--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:24:07+00:00</t>
+    <t>2022-07-14T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-MeaningOrderVS.xlsx
+++ b/branches/master/ValueSet-MeaningOrderVS.xlsx
@@ -53,7 +53,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
